--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2497949.088594821</v>
+        <v>-2500821.196986176</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10773478.83102631</v>
+        <v>10773478.8310263</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>277.6277818396609</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>17.38479577089137</v>
+        <v>17.38479577089177</v>
       </c>
       <c r="S2" t="n">
-        <v>160.9594723450098</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.863364016199</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1769267299188</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>324.8825300204273</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>136.2150613636115</v>
       </c>
       <c r="H3" t="n">
-        <v>101.3369369087892</v>
+        <v>101.3369369087893</v>
       </c>
       <c r="I3" t="n">
-        <v>50.54409764591922</v>
+        <v>50.54409764591934</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30.09458722665595</v>
+        <v>30.09458722665616</v>
       </c>
       <c r="S3" t="n">
-        <v>150.7225995630385</v>
+        <v>150.7225995630386</v>
       </c>
       <c r="T3" t="n">
-        <v>195.6162599236304</v>
+        <v>195.6162599236305</v>
       </c>
       <c r="U3" t="n">
         <v>225.8671415678433</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.21187422740283</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>24.40047930212297</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>209.7906378592484</v>
+        <v>202.6656358223066</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.1936602911642</v>
       </c>
       <c r="H5" t="n">
-        <v>317.8752149957758</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.88170732580071</v>
+        <v>17.38479577089177</v>
       </c>
       <c r="S5" t="n">
-        <v>160.9594723450098</v>
+        <v>160.9594723450099</v>
       </c>
       <c r="T5" t="n">
-        <v>213.863364016199</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>104.9141266598041</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>136.2150613636115</v>
       </c>
       <c r="H6" t="n">
-        <v>101.3369369087892</v>
+        <v>101.3369369087893</v>
       </c>
       <c r="I6" t="n">
-        <v>50.54409764591922</v>
+        <v>50.54409764591934</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>30.09458722665595</v>
+        <v>30.09458722665616</v>
       </c>
       <c r="S6" t="n">
-        <v>150.7225995630385</v>
+        <v>150.7225995630386</v>
       </c>
       <c r="T6" t="n">
-        <v>195.6162599236304</v>
+        <v>195.6162599236305</v>
       </c>
       <c r="U6" t="n">
         <v>225.8671415678433</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>126.9998875518032</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>26.47277805533234</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.942466372819666</v>
+        <v>6.942466372819908</v>
       </c>
       <c r="R7" t="n">
-        <v>2.050344035385272</v>
+        <v>134.7551189590918</v>
       </c>
       <c r="S7" t="n">
-        <v>207.5293622453315</v>
+        <v>24.74405348855458</v>
       </c>
       <c r="T7" t="n">
-        <v>223.9033354783226</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>91.19460175177984</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>231.9912834075939</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>6.813828655165651</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>228.5309204614415</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>105.1669704749672</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>140.7058473537574</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>163.3736250957656</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>282.8547581679345</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>80.08971311158706</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5512144998715</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2485,7 +2485,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G25" t="n">
         <v>141.2394908002291</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2536,7 +2536,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X25" t="n">
         <v>201.4250078969974</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,13 +2767,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002299</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652572</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972037</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972048</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>780.325493975161</v>
+        <v>333.5293812963432</v>
       </c>
       <c r="C2" t="n">
-        <v>411.3629770347493</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="D2" t="n">
-        <v>53.09727842799879</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="E2" t="n">
-        <v>53.09727842799879</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="F2" t="n">
-        <v>53.09727842799879</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="G2" t="n">
-        <v>53.09727842799879</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="H2" t="n">
-        <v>53.09727842799879</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="I2" t="n">
-        <v>53.09727842799879</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="J2" t="n">
-        <v>218.4827220745476</v>
+        <v>218.482722074547</v>
       </c>
       <c r="K2" t="n">
-        <v>587.0974345948639</v>
+        <v>587.0974345948625</v>
       </c>
       <c r="L2" t="n">
-        <v>683.1886057561371</v>
+        <v>763.3286086260749</v>
       </c>
       <c r="M2" t="n">
-        <v>1266.796384061575</v>
+        <v>1346.936386931512</v>
       </c>
       <c r="N2" t="n">
-        <v>1845.21554881733</v>
+        <v>1925.355551687265</v>
       </c>
       <c r="O2" t="n">
-        <v>2049.360549648906</v>
+        <v>2049.360549648908</v>
       </c>
       <c r="P2" t="n">
-        <v>2439.275666682959</v>
+        <v>2439.27566668296</v>
       </c>
       <c r="Q2" t="n">
-        <v>2654.863921399939</v>
+        <v>2654.86392139994</v>
       </c>
       <c r="R2" t="n">
         <v>2637.303521631362</v>
       </c>
       <c r="S2" t="n">
-        <v>2474.718196030342</v>
+        <v>2637.303521631362</v>
       </c>
       <c r="T2" t="n">
-        <v>2258.69459601398</v>
+        <v>2421.279921615</v>
       </c>
       <c r="U2" t="n">
-        <v>2258.69459601398</v>
+        <v>2167.565854211041</v>
       </c>
       <c r="V2" t="n">
-        <v>2258.69459601398</v>
+        <v>1836.502966867471</v>
       </c>
       <c r="W2" t="n">
-        <v>1930.530424276174</v>
+        <v>1483.734311597357</v>
       </c>
       <c r="X2" t="n">
-        <v>1557.064666015094</v>
+        <v>1110.268553336277</v>
       </c>
       <c r="Y2" t="n">
-        <v>1166.925334039283</v>
+        <v>720.129221360465</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>344.1034359212511</v>
       </c>
       <c r="G3" t="n">
-        <v>206.5124648468963</v>
+        <v>206.5124648468962</v>
       </c>
       <c r="H3" t="n">
-        <v>104.1519225147859</v>
+        <v>104.1519225147858</v>
       </c>
       <c r="I3" t="n">
-        <v>53.09727842799879</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="J3" t="n">
-        <v>157.9063359771653</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="K3" t="n">
-        <v>463.6625521845739</v>
+        <v>358.8534946354068</v>
       </c>
       <c r="L3" t="n">
-        <v>936.1939138229346</v>
+        <v>768.4020178544901</v>
       </c>
       <c r="M3" t="n">
-        <v>1539.594946630761</v>
+        <v>1371.803050662316</v>
       </c>
       <c r="N3" t="n">
-        <v>1700.12427208854</v>
+        <v>1532.332376120094</v>
       </c>
       <c r="O3" t="n">
-        <v>2214.681143818312</v>
+        <v>2046.889247849866</v>
       </c>
       <c r="P3" t="n">
-        <v>2610.655329839193</v>
+        <v>2442.863433870746</v>
       </c>
       <c r="Q3" t="n">
-        <v>2654.863921399939</v>
+        <v>2654.86392139994</v>
       </c>
       <c r="R3" t="n">
         <v>2624.465348443721</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2375.063404140696</v>
+        <v>224.6341747159324</v>
       </c>
       <c r="C4" t="n">
-        <v>2206.127221212789</v>
+        <v>199.9872259259092</v>
       </c>
       <c r="D4" t="n">
-        <v>2056.010581800453</v>
+        <v>199.9872259259092</v>
       </c>
       <c r="E4" t="n">
-        <v>1908.09748821806</v>
+        <v>199.9872259259092</v>
       </c>
       <c r="F4" t="n">
-        <v>1761.20754072015</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="G4" t="n">
-        <v>1761.20754072015</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="H4" t="n">
-        <v>1761.20754072015</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="I4" t="n">
-        <v>1761.20754072015</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="J4" t="n">
-        <v>1761.20754072015</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="K4" t="n">
-        <v>1847.976500037355</v>
+        <v>139.8662377452033</v>
       </c>
       <c r="L4" t="n">
-        <v>2014.537329059219</v>
+        <v>306.4270667670669</v>
       </c>
       <c r="M4" t="n">
-        <v>2200.541492805801</v>
+        <v>492.4312305136489</v>
       </c>
       <c r="N4" t="n">
-        <v>2387.557509700091</v>
+        <v>679.4472474079381</v>
       </c>
       <c r="O4" t="n">
-        <v>2544.28077520695</v>
+        <v>836.1705129147963</v>
       </c>
       <c r="P4" t="n">
-        <v>2654.863921399939</v>
+        <v>946.7536591077857</v>
       </c>
       <c r="Q4" t="n">
-        <v>2654.863921399939</v>
+        <v>946.7536591077857</v>
       </c>
       <c r="R4" t="n">
-        <v>2654.863921399939</v>
+        <v>946.7536591077857</v>
       </c>
       <c r="S4" t="n">
-        <v>2654.863921399939</v>
+        <v>946.7536591077857</v>
       </c>
       <c r="T4" t="n">
-        <v>2654.863921399939</v>
+        <v>946.7536591077857</v>
       </c>
       <c r="U4" t="n">
-        <v>2654.863921399939</v>
+        <v>946.7536591077857</v>
       </c>
       <c r="V4" t="n">
-        <v>2442.954186188577</v>
+        <v>742.0408956509103</v>
       </c>
       <c r="W4" t="n">
-        <v>2442.954186188577</v>
+        <v>452.6237256139497</v>
       </c>
       <c r="X4" t="n">
-        <v>2442.954186188577</v>
+        <v>224.6341747159324</v>
       </c>
       <c r="Y4" t="n">
-        <v>2442.954186188577</v>
+        <v>224.6341747159324</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1542.550139762944</v>
+        <v>1608.678732392207</v>
       </c>
       <c r="C5" t="n">
-        <v>1542.550139762944</v>
+        <v>1239.716215451796</v>
       </c>
       <c r="D5" t="n">
-        <v>1184.284441156194</v>
+        <v>881.4505168450451</v>
       </c>
       <c r="E5" t="n">
-        <v>798.4961885579497</v>
+        <v>881.4505168450451</v>
       </c>
       <c r="F5" t="n">
-        <v>791.5506878087463</v>
+        <v>470.4646120554374</v>
       </c>
       <c r="G5" t="n">
-        <v>374.1833541813077</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="H5" t="n">
-        <v>53.09727842799879</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="I5" t="n">
-        <v>53.09727842799879</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="J5" t="n">
-        <v>218.4827220745476</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9446758131563</v>
+        <v>100.8080325028612</v>
       </c>
       <c r="L5" t="n">
-        <v>973.5204493793755</v>
+        <v>610.3838060690795</v>
       </c>
       <c r="M5" t="n">
-        <v>1557.128227684814</v>
+        <v>1193.991584374517</v>
       </c>
       <c r="N5" t="n">
-        <v>2135.547392440568</v>
+        <v>1772.41074913027</v>
       </c>
       <c r="O5" t="n">
-        <v>2259.552390402212</v>
+        <v>2259.552390402214</v>
       </c>
       <c r="P5" t="n">
-        <v>2649.467507436264</v>
+        <v>2649.467507436265</v>
       </c>
       <c r="Q5" t="n">
-        <v>2654.863921399939</v>
+        <v>2654.86392139994</v>
       </c>
       <c r="R5" t="n">
-        <v>2638.82179278802</v>
+        <v>2637.303521631362</v>
       </c>
       <c r="S5" t="n">
-        <v>2476.236467187</v>
+        <v>2474.718196030342</v>
       </c>
       <c r="T5" t="n">
-        <v>2260.212867170637</v>
+        <v>2474.718196030342</v>
       </c>
       <c r="U5" t="n">
-        <v>2260.212867170637</v>
+        <v>2474.718196030342</v>
       </c>
       <c r="V5" t="n">
-        <v>1929.149979827066</v>
+        <v>2474.718196030342</v>
       </c>
       <c r="W5" t="n">
-        <v>1929.149979827066</v>
+        <v>2368.744330717409</v>
       </c>
       <c r="X5" t="n">
-        <v>1929.149979827066</v>
+        <v>1995.278572456329</v>
       </c>
       <c r="Y5" t="n">
-        <v>1929.149979827066</v>
+        <v>1995.278572456329</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>973.2628878422</v>
+        <v>973.2628878422003</v>
       </c>
       <c r="C6" t="n">
-        <v>798.809858561073</v>
+        <v>798.8098585610733</v>
       </c>
       <c r="D6" t="n">
-        <v>649.8754488998218</v>
+        <v>649.875448899822</v>
       </c>
       <c r="E6" t="n">
-        <v>490.6379938943663</v>
+        <v>490.6379938943666</v>
       </c>
       <c r="F6" t="n">
-        <v>344.1034359212513</v>
+        <v>344.1034359212515</v>
       </c>
       <c r="G6" t="n">
-        <v>206.5124648468962</v>
+        <v>206.5124648468964</v>
       </c>
       <c r="H6" t="n">
-        <v>104.1519225147859</v>
+        <v>104.151922514786</v>
       </c>
       <c r="I6" t="n">
-        <v>53.09727842799879</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="J6" t="n">
-        <v>157.9063359771653</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="K6" t="n">
-        <v>463.6625521845739</v>
+        <v>358.8534946354068</v>
       </c>
       <c r="L6" t="n">
-        <v>569.06197197251</v>
+        <v>464.2529144233423</v>
       </c>
       <c r="M6" t="n">
-        <v>1172.463004780337</v>
+        <v>897.2541000621973</v>
       </c>
       <c r="N6" t="n">
-        <v>1532.332376120092</v>
+        <v>1532.332376120094</v>
       </c>
       <c r="O6" t="n">
-        <v>2046.889247849864</v>
+        <v>2046.889247849865</v>
       </c>
       <c r="P6" t="n">
         <v>2442.863433870745</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.09727842799879</v>
+        <v>523.9463034064783</v>
       </c>
       <c r="C7" t="n">
-        <v>53.09727842799879</v>
+        <v>355.0101204785714</v>
       </c>
       <c r="D7" t="n">
-        <v>53.09727842799879</v>
+        <v>355.0101204785714</v>
       </c>
       <c r="E7" t="n">
-        <v>53.09727842799879</v>
+        <v>355.0101204785714</v>
       </c>
       <c r="F7" t="n">
-        <v>53.09727842799879</v>
+        <v>208.120172980661</v>
       </c>
       <c r="G7" t="n">
-        <v>53.09727842799879</v>
+        <v>208.120172980661</v>
       </c>
       <c r="H7" t="n">
-        <v>53.09727842799879</v>
+        <v>208.120172980661</v>
       </c>
       <c r="I7" t="n">
-        <v>53.09727842799879</v>
+        <v>79.83745828186986</v>
       </c>
       <c r="J7" t="n">
-        <v>53.09727842799879</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="K7" t="n">
-        <v>139.8662377452036</v>
+        <v>139.8662377452033</v>
       </c>
       <c r="L7" t="n">
-        <v>306.4270667670677</v>
+        <v>306.4270667670669</v>
       </c>
       <c r="M7" t="n">
-        <v>492.4312305136501</v>
+        <v>492.4312305136489</v>
       </c>
       <c r="N7" t="n">
-        <v>679.4472474079397</v>
+        <v>679.4472474079381</v>
       </c>
       <c r="O7" t="n">
-        <v>836.1705129147982</v>
+        <v>836.1705129147963</v>
       </c>
       <c r="P7" t="n">
-        <v>946.7536591077878</v>
+        <v>946.7536591077857</v>
       </c>
       <c r="Q7" t="n">
-        <v>939.7410668120103</v>
+        <v>939.7410668120079</v>
       </c>
       <c r="R7" t="n">
-        <v>937.6700122308131</v>
+        <v>803.6247850351475</v>
       </c>
       <c r="S7" t="n">
-        <v>728.0443938011853</v>
+        <v>778.6307916123651</v>
       </c>
       <c r="T7" t="n">
-        <v>501.8794084695462</v>
+        <v>778.6307916123651</v>
       </c>
       <c r="U7" t="n">
-        <v>501.8794084695462</v>
+        <v>778.6307916123651</v>
       </c>
       <c r="V7" t="n">
-        <v>501.8794084695462</v>
+        <v>523.9463034064783</v>
       </c>
       <c r="W7" t="n">
-        <v>501.8794084695462</v>
+        <v>523.9463034064783</v>
       </c>
       <c r="X7" t="n">
-        <v>273.8898575715289</v>
+        <v>523.9463034064783</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.09727842799879</v>
+        <v>523.9463034064783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1625.224916186174</v>
+        <v>1624.022710873157</v>
       </c>
       <c r="C8" t="n">
-        <v>1625.224916186174</v>
+        <v>1255.060193932745</v>
       </c>
       <c r="D8" t="n">
-        <v>1266.959217579423</v>
+        <v>896.7944953259947</v>
       </c>
       <c r="E8" t="n">
-        <v>881.1709649811789</v>
+        <v>511.0062427277505</v>
       </c>
       <c r="F8" t="n">
-        <v>470.1850601915713</v>
+        <v>504.060741978547</v>
       </c>
       <c r="G8" t="n">
-        <v>53.09727842799879</v>
+        <v>491.0133642553785</v>
       </c>
       <c r="H8" t="n">
-        <v>53.09727842799879</v>
+        <v>172.790249027888</v>
       </c>
       <c r="I8" t="n">
-        <v>53.09727842799879</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="J8" t="n">
-        <v>74.33152842138209</v>
+        <v>74.3315284213821</v>
       </c>
       <c r="K8" t="n">
         <v>156.8946829959744</v>
       </c>
       <c r="L8" t="n">
-        <v>709.7079412421737</v>
+        <v>702.9587923185826</v>
       </c>
       <c r="M8" t="n">
         <v>1334.676603301894</v>
       </c>
       <c r="N8" t="n">
-        <v>1961.98427136174</v>
+        <v>1961.984271361741</v>
       </c>
       <c r="O8" t="n">
         <v>2509.145476128818</v>
       </c>
       <c r="P8" t="n">
-        <v>2619.879801378344</v>
+        <v>2619.879801378345</v>
       </c>
       <c r="Q8" t="n">
-        <v>2654.863921399939</v>
+        <v>2654.86392139994</v>
       </c>
       <c r="R8" t="n">
-        <v>2654.863921399939</v>
+        <v>2654.86392139994</v>
       </c>
       <c r="S8" t="n">
-        <v>2654.863921399939</v>
+        <v>2498.648883896768</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.748162054707</v>
+        <v>2498.648883896768</v>
       </c>
       <c r="U8" t="n">
-        <v>2309.056458799858</v>
+        <v>2244.957180641919</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.993571456288</v>
+        <v>2244.957180641919</v>
       </c>
       <c r="W8" t="n">
-        <v>1625.224916186174</v>
+        <v>2244.957180641919</v>
       </c>
       <c r="X8" t="n">
-        <v>1625.224916186174</v>
+        <v>2244.957180641919</v>
       </c>
       <c r="Y8" t="n">
-        <v>1625.224916186174</v>
+        <v>2010.622550937279</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>199.9181132928777</v>
       </c>
       <c r="H9" t="n">
-        <v>99.0021354376823</v>
+        <v>99.00213543768231</v>
       </c>
       <c r="I9" t="n">
-        <v>53.09727842799879</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="J9" t="n">
-        <v>171.7565302848944</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="K9" t="n">
-        <v>501.1849345907043</v>
+        <v>382.5256827338087</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.546474456823</v>
+        <v>886.8872225999272</v>
       </c>
       <c r="M9" t="n">
-        <v>1646.091823923927</v>
+        <v>1066.384558954532</v>
       </c>
       <c r="N9" t="n">
-        <v>2303.170644470412</v>
+        <v>1431.325102575001</v>
       </c>
       <c r="O9" t="n">
-        <v>2462.682957139173</v>
+        <v>1980.761111327724</v>
       </c>
       <c r="P9" t="n">
-        <v>2571.372584666472</v>
+        <v>2404.728879808561</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.442335869028</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.1270114227276</v>
+        <v>791.4648164742187</v>
       </c>
       <c r="C10" t="n">
-        <v>351.1270114227276</v>
+        <v>622.5286335463118</v>
       </c>
       <c r="D10" t="n">
-        <v>201.0103720103919</v>
+        <v>472.411994133976</v>
       </c>
       <c r="E10" t="n">
-        <v>53.09727842799879</v>
+        <v>324.4989005515829</v>
       </c>
       <c r="F10" t="n">
-        <v>53.09727842799879</v>
+        <v>177.6089530536725</v>
       </c>
       <c r="G10" t="n">
-        <v>53.09727842799879</v>
+        <v>177.6089530536725</v>
       </c>
       <c r="H10" t="n">
-        <v>53.09727842799879</v>
+        <v>177.6089530536725</v>
       </c>
       <c r="I10" t="n">
-        <v>53.09727842799879</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="J10" t="n">
-        <v>53.09727842799879</v>
+        <v>53.0972784279988</v>
       </c>
       <c r="K10" t="n">
         <v>154.1452080236086</v>
@@ -4990,22 +4990,22 @@
         <v>1053.031959887344</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.031959887344</v>
+        <v>1046.149304680106</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.031959887344</v>
+        <v>1046.149304680106</v>
       </c>
       <c r="V10" t="n">
-        <v>822.192646289928</v>
+        <v>791.4648164742187</v>
       </c>
       <c r="W10" t="n">
-        <v>532.7754762529673</v>
+        <v>791.4648164742187</v>
       </c>
       <c r="X10" t="n">
-        <v>532.7754762529673</v>
+        <v>791.4648164742187</v>
       </c>
       <c r="Y10" t="n">
-        <v>532.7754762529673</v>
+        <v>791.4648164742187</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5130,10 +5130,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851653</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572584</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D13" t="n">
-        <v>377.6556127449227</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>377.6556127449227</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>377.6556127449227</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782942</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797729</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855602</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.2406881998</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993913</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058935</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154051</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="20">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836013</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556945</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F25" t="n">
         <v>411.2214559580113</v>
@@ -6169,25 +6169,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T25" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
         <v>1084.076049400516</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,25 +6406,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,10 +7360,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7795,7 +7795,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,10 +7819,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>80.94949784842441</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7991,7 +7991,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>80.94949784841674</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>20.22330044226112</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>307.221316597119</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>40.59052413135616</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>2.040611488691695</v>
       </c>
       <c r="K5" t="n">
-        <v>199.7486865290359</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8228,7 +8228,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>366.8046902124255</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>20.22330044226112</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>293.5840060035648</v>
       </c>
       <c r="N6" t="n">
-        <v>201.3535816989656</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8456,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>410.8438924054091</v>
       </c>
       <c r="M8" t="n">
-        <v>442.6962113477905</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>463.0526049432528</v>
+        <v>167.9634363311155</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>41.7503131318983</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-2.480728907023433e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-2.480728907023433e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>87.64510993134667</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,10 +22562,10 @@
         <v>413.1936602911642</v>
       </c>
       <c r="H2" t="n">
-        <v>317.8752149957758</v>
+        <v>317.8752149957759</v>
       </c>
       <c r="I2" t="n">
-        <v>129.1656898932701</v>
+        <v>129.1656898932703</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>160.9594723450099</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1769267299188</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>24.35843869698567</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>42.34700546457956</v>
+        <v>49.47200750152142</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>74.66500970697011</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>24.81829093851147</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>126.7126101431586</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>55.21102825632914</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>3.329716221309639</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>68.5257599066253</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1478117.18848877</v>
+        <v>1478117.188488771</v>
       </c>
     </row>
     <row r="4">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15883.07632636137</v>
+        <v>15883.07632636139</v>
       </c>
       <c r="C2" t="n">
         <v>20526.04424660708</v>
@@ -26326,16 +26326,16 @@
         <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
+        <v>20178.66499225016</v>
+      </c>
+      <c r="H2" t="n">
         <v>20178.66499225015</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20178.66499225016</v>
       </c>
       <c r="I2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660709</v>
@@ -26344,7 +26344,7 @@
         <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>727969.6304496035</v>
+        <v>727969.630449602</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>58958.22964959507</v>
+        <v>58958.22964959644</v>
       </c>
       <c r="E3" t="n">
         <v>774209.0467243784</v>
@@ -26378,13 +26378,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
         <v>173657.3039626915</v>
@@ -26399,7 +26399,7 @@
         <v>126842.9190604471</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89065.44838804231</v>
+        <v>89065.44838804254</v>
       </c>
       <c r="C4" t="n">
-        <v>195067.5772598633</v>
+        <v>195067.5772598635</v>
       </c>
       <c r="D4" t="n">
         <v>183435.2412486325</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695023</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.480531695023</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695075</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="J4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="L4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="M4" t="n">
         <v>14278.33979478852</v>
       </c>
       <c r="N4" t="n">
+        <v>14278.33979478854</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14278.33979478854</v>
+      </c>
+      <c r="P4" t="n">
         <v>14278.33979478852</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14278.33979478852</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14278.33979478855</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85418.53012156696</v>
+        <v>85418.53012156692</v>
       </c>
       <c r="C5" t="n">
-        <v>85418.53012156696</v>
+        <v>85418.53012156692</v>
       </c>
       <c r="D5" t="n">
         <v>86919.31059264889</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-886570.5326328514</v>
+        <v>-887034.8294248746</v>
       </c>
       <c r="C6" t="n">
-        <v>-259960.0631348231</v>
+        <v>-259960.0631348233</v>
       </c>
       <c r="D6" t="n">
-        <v>-308786.7372442693</v>
+        <v>-308786.7372442707</v>
       </c>
       <c r="E6" t="n">
-        <v>-861440.3920877303</v>
+        <v>-861475.130013166</v>
       </c>
       <c r="F6" t="n">
-        <v>-87231.34536335201</v>
+        <v>-87266.08328878767</v>
       </c>
       <c r="G6" t="n">
-        <v>-87231.34536335207</v>
+        <v>-87266.0832887877</v>
       </c>
       <c r="H6" t="n">
-        <v>-87231.345363352</v>
+        <v>-87266.08328878773</v>
       </c>
       <c r="I6" t="n">
         <v>-116344.1293957286</v>
       </c>
       <c r="J6" t="n">
-        <v>-270573.7153647883</v>
+        <v>-270573.7153647884</v>
       </c>
       <c r="K6" t="n">
-        <v>-96916.41140209683</v>
+        <v>-96916.41140209684</v>
       </c>
       <c r="L6" t="n">
-        <v>-96916.41140209681</v>
+        <v>-96916.41140209684</v>
       </c>
       <c r="M6" t="n">
         <v>-223759.3304625439</v>
@@ -26558,10 +26558,10 @@
         <v>-116344.1293957286</v>
       </c>
       <c r="O6" t="n">
+        <v>-96916.41140209686</v>
+      </c>
+      <c r="P6" t="n">
         <v>-96916.41140209683</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-96916.41140209686</v>
       </c>
     </row>
   </sheetData>
@@ -26698,31 +26698,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>524.6329594627465</v>
+        <v>524.6329594627449</v>
       </c>
       <c r="C3" t="n">
-        <v>524.6329594627465</v>
+        <v>524.6329594627449</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.7159803499849</v>
+        <v>663.715980349985</v>
       </c>
       <c r="C4" t="n">
-        <v>663.7159803499849</v>
+        <v>663.715980349985</v>
       </c>
       <c r="D4" t="n">
-        <v>663.7159803499849</v>
+        <v>663.715980349985</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>524.6329594627465</v>
+        <v>524.6329594627449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>68.84314087531857</v>
+        <v>68.84314087532016</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.7159803499849</v>
+        <v>663.715980349985</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>508.9923077496635</v>
+        <v>508.9923077496634</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>663.7159803499849</v>
+        <v>663.7159803499852</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>508.9923077496633</v>
+        <v>508.9923077496634</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>663.7159803499849</v>
+        <v>663.715980349985</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>508.9923077496635</v>
+        <v>508.9923077496634</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.6201059545345</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>142.8463417965049</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>153.8158440753975</v>
       </c>
       <c r="I4" t="n">
-        <v>126.9998875518031</v>
+        <v>126.9998875518032</v>
       </c>
       <c r="J4" t="n">
-        <v>26.47277805533214</v>
+        <v>26.47277805533234</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.942466372819666</v>
+        <v>6.942466372819908</v>
       </c>
       <c r="R4" t="n">
-        <v>134.7551189590917</v>
+        <v>134.7551189590918</v>
       </c>
       <c r="S4" t="n">
-        <v>207.5293622453315</v>
+        <v>207.5293622453316</v>
       </c>
       <c r="T4" t="n">
         <v>223.9033354783226</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>317.8752149957759</v>
       </c>
       <c r="I5" t="n">
-        <v>129.1656898932701</v>
+        <v>129.1656898932703</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.503088445090667</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>213.863364016199</v>
       </c>
       <c r="U5" t="n">
         <v>251.1769267299188</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>244.3268420576089</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.044919923362</v>
@@ -27792,10 +27792,10 @@
         <v>153.8158440753975</v>
       </c>
       <c r="I7" t="n">
-        <v>126.9998875518031</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.47277805533214</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.7047749237065</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>182.785308756777</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.9033354783226</v>
       </c>
       <c r="U7" t="n">
         <v>286.2674261145765</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>121.4572613631862</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>154.2466552484597</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28029,7 +28029,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28062,16 +28062,16 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>216.559076065593</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>23.60672286238653</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.109077223970838</v>
+        <v>2.109077223970832</v>
       </c>
       <c r="H2" t="n">
-        <v>21.59958711999136</v>
+        <v>21.59958711999129</v>
       </c>
       <c r="I2" t="n">
-        <v>81.31019967713583</v>
+        <v>81.31019967713559</v>
       </c>
       <c r="J2" t="n">
-        <v>179.0052930379951</v>
+        <v>179.0052930379946</v>
       </c>
       <c r="K2" t="n">
-        <v>268.2825319286808</v>
+        <v>268.28253192868</v>
       </c>
       <c r="L2" t="n">
-        <v>332.8282040217784</v>
+        <v>332.8282040217774</v>
       </c>
       <c r="M2" t="n">
-        <v>370.3355061035698</v>
+        <v>370.3355061035687</v>
       </c>
       <c r="N2" t="n">
-        <v>376.327921766177</v>
+        <v>376.3279217661758</v>
       </c>
       <c r="O2" t="n">
-        <v>355.3557851203169</v>
+        <v>355.3557851203158</v>
       </c>
       <c r="P2" t="n">
-        <v>303.2879411535368</v>
+        <v>303.2879411535359</v>
       </c>
       <c r="Q2" t="n">
-        <v>227.756613070081</v>
+        <v>227.7566130700804</v>
       </c>
       <c r="R2" t="n">
-        <v>132.4843221702583</v>
+        <v>132.4843221702579</v>
       </c>
       <c r="S2" t="n">
-        <v>48.06059724123553</v>
+        <v>48.06059724123539</v>
       </c>
       <c r="T2" t="n">
-        <v>9.232485547932351</v>
+        <v>9.232485547932322</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1687261779176671</v>
+        <v>0.1687261779176665</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.128455799599115</v>
+        <v>1.128455799599112</v>
       </c>
       <c r="H3" t="n">
-        <v>10.89850732770724</v>
+        <v>10.89850732770721</v>
       </c>
       <c r="I3" t="n">
-        <v>38.85253520549585</v>
+        <v>38.85253520549573</v>
       </c>
       <c r="J3" t="n">
-        <v>106.6143262244059</v>
+        <v>106.6143262244056</v>
       </c>
       <c r="K3" t="n">
-        <v>182.2208647975466</v>
+        <v>182.2208647975461</v>
       </c>
       <c r="L3" t="n">
-        <v>245.0184401717289</v>
+        <v>245.0184401717282</v>
       </c>
       <c r="M3" t="n">
-        <v>285.9249629071968</v>
+        <v>285.9249629071959</v>
       </c>
       <c r="N3" t="n">
-        <v>293.4925458790699</v>
+        <v>293.492545879069</v>
       </c>
       <c r="O3" t="n">
-        <v>268.4883410563737</v>
+        <v>268.4883410563729</v>
       </c>
       <c r="P3" t="n">
-        <v>215.48556404801</v>
+        <v>215.4855640480093</v>
       </c>
       <c r="Q3" t="n">
-        <v>144.0463929453186</v>
+        <v>144.0463929453182</v>
       </c>
       <c r="R3" t="n">
-        <v>70.06324692598719</v>
+        <v>70.06324692598697</v>
       </c>
       <c r="S3" t="n">
-        <v>20.96057154079934</v>
+        <v>20.96057154079928</v>
       </c>
       <c r="T3" t="n">
-        <v>4.548468771191168</v>
+        <v>4.548468771191155</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07424051313152076</v>
+        <v>0.07424051313152054</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9460594350967558</v>
+        <v>0.9460594350967529</v>
       </c>
       <c r="H4" t="n">
-        <v>8.411328432042072</v>
+        <v>8.411328432042046</v>
       </c>
       <c r="I4" t="n">
-        <v>28.45058737545518</v>
+        <v>28.45058737545509</v>
       </c>
       <c r="J4" t="n">
-        <v>66.88640206134063</v>
+        <v>66.88640206134043</v>
       </c>
       <c r="K4" t="n">
-        <v>109.9149052776049</v>
+        <v>109.9149052776045</v>
       </c>
       <c r="L4" t="n">
-        <v>140.6532363779304</v>
+        <v>140.65323637793</v>
       </c>
       <c r="M4" t="n">
-        <v>148.299116721576</v>
+        <v>148.2991167215756</v>
       </c>
       <c r="N4" t="n">
-        <v>144.7728951907609</v>
+        <v>144.7728951907605</v>
       </c>
       <c r="O4" t="n">
-        <v>133.721200880767</v>
+        <v>133.7212008807666</v>
       </c>
       <c r="P4" t="n">
-        <v>114.421588404793</v>
+        <v>114.4215884047927</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.21957687887472</v>
+        <v>79.21957687887448</v>
       </c>
       <c r="R4" t="n">
-        <v>42.53827241807776</v>
+        <v>42.53827241807763</v>
       </c>
       <c r="S4" t="n">
-        <v>16.48723579164073</v>
+        <v>16.48723579164068</v>
       </c>
       <c r="T4" t="n">
-        <v>4.042253949958865</v>
+        <v>4.042253949958853</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05160324191436856</v>
+        <v>0.05160324191436841</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.109077223970838</v>
+        <v>2.109077223970832</v>
       </c>
       <c r="H5" t="n">
-        <v>21.59958711999136</v>
+        <v>21.59958711999129</v>
       </c>
       <c r="I5" t="n">
-        <v>81.31019967713583</v>
+        <v>81.31019967713559</v>
       </c>
       <c r="J5" t="n">
-        <v>179.0052930379951</v>
+        <v>179.0052930379946</v>
       </c>
       <c r="K5" t="n">
-        <v>268.2825319286808</v>
+        <v>268.28253192868</v>
       </c>
       <c r="L5" t="n">
-        <v>332.8282040217784</v>
+        <v>332.8282040217774</v>
       </c>
       <c r="M5" t="n">
-        <v>370.3355061035698</v>
+        <v>370.3355061035687</v>
       </c>
       <c r="N5" t="n">
-        <v>376.327921766177</v>
+        <v>376.3279217661758</v>
       </c>
       <c r="O5" t="n">
-        <v>355.3557851203169</v>
+        <v>355.3557851203158</v>
       </c>
       <c r="P5" t="n">
-        <v>303.2879411535368</v>
+        <v>303.2879411535359</v>
       </c>
       <c r="Q5" t="n">
-        <v>227.756613070081</v>
+        <v>227.7566130700804</v>
       </c>
       <c r="R5" t="n">
-        <v>132.4843221702583</v>
+        <v>132.4843221702579</v>
       </c>
       <c r="S5" t="n">
-        <v>48.06059724123553</v>
+        <v>48.06059724123539</v>
       </c>
       <c r="T5" t="n">
-        <v>9.232485547932351</v>
+        <v>9.232485547932322</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1687261779176671</v>
+        <v>0.1687261779176665</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.128455799599115</v>
+        <v>1.128455799599112</v>
       </c>
       <c r="H6" t="n">
-        <v>10.89850732770724</v>
+        <v>10.89850732770721</v>
       </c>
       <c r="I6" t="n">
-        <v>38.85253520549585</v>
+        <v>38.85253520549573</v>
       </c>
       <c r="J6" t="n">
-        <v>106.6143262244059</v>
+        <v>106.6143262244056</v>
       </c>
       <c r="K6" t="n">
-        <v>182.2208647975466</v>
+        <v>182.2208647975461</v>
       </c>
       <c r="L6" t="n">
-        <v>245.0184401717289</v>
+        <v>245.0184401717282</v>
       </c>
       <c r="M6" t="n">
-        <v>285.9249629071968</v>
+        <v>285.9249629071959</v>
       </c>
       <c r="N6" t="n">
-        <v>293.4925458790699</v>
+        <v>293.492545879069</v>
       </c>
       <c r="O6" t="n">
-        <v>268.4883410563737</v>
+        <v>268.4883410563729</v>
       </c>
       <c r="P6" t="n">
-        <v>215.48556404801</v>
+        <v>215.4855640480093</v>
       </c>
       <c r="Q6" t="n">
-        <v>144.0463929453186</v>
+        <v>144.0463929453182</v>
       </c>
       <c r="R6" t="n">
-        <v>70.06324692598719</v>
+        <v>70.06324692598697</v>
       </c>
       <c r="S6" t="n">
-        <v>20.96057154079934</v>
+        <v>20.96057154079928</v>
       </c>
       <c r="T6" t="n">
-        <v>4.548468771191168</v>
+        <v>4.548468771191155</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07424051313152076</v>
+        <v>0.07424051313152054</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9460594350967558</v>
+        <v>0.9460594350967529</v>
       </c>
       <c r="H7" t="n">
-        <v>8.411328432042072</v>
+        <v>8.411328432042046</v>
       </c>
       <c r="I7" t="n">
-        <v>28.45058737545518</v>
+        <v>28.45058737545509</v>
       </c>
       <c r="J7" t="n">
-        <v>66.88640206134063</v>
+        <v>66.88640206134043</v>
       </c>
       <c r="K7" t="n">
-        <v>109.9149052776049</v>
+        <v>109.9149052776045</v>
       </c>
       <c r="L7" t="n">
-        <v>140.6532363779304</v>
+        <v>140.65323637793</v>
       </c>
       <c r="M7" t="n">
-        <v>148.299116721576</v>
+        <v>148.2991167215756</v>
       </c>
       <c r="N7" t="n">
-        <v>144.7728951907609</v>
+        <v>144.7728951907605</v>
       </c>
       <c r="O7" t="n">
-        <v>133.721200880767</v>
+        <v>133.7212008807666</v>
       </c>
       <c r="P7" t="n">
-        <v>114.421588404793</v>
+        <v>114.4215884047927</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.21957687887472</v>
+        <v>79.21957687887448</v>
       </c>
       <c r="R7" t="n">
-        <v>42.53827241807776</v>
+        <v>42.53827241807763</v>
       </c>
       <c r="S7" t="n">
-        <v>16.48723579164073</v>
+        <v>16.48723579164068</v>
       </c>
       <c r="T7" t="n">
-        <v>4.042253949958865</v>
+        <v>4.042253949958853</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05160324191436856</v>
+        <v>0.05160324191436841</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,10 +32558,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33667,7 +33667,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>522.1224556861836</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,10 +33980,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>167.0560036833826</v>
+        <v>167.0560036833821</v>
       </c>
       <c r="K2" t="n">
-        <v>372.338093454865</v>
+        <v>372.3380934548642</v>
       </c>
       <c r="L2" t="n">
-        <v>97.06178905179115</v>
+        <v>178.0112869002145</v>
       </c>
       <c r="M2" t="n">
-        <v>589.5028063691295</v>
+        <v>589.5028063691284</v>
       </c>
       <c r="N2" t="n">
-        <v>584.2617825815703</v>
+        <v>584.261782581569</v>
       </c>
       <c r="O2" t="n">
-        <v>206.2070715470469</v>
+        <v>125.2575736986291</v>
       </c>
       <c r="P2" t="n">
-        <v>393.8536535697499</v>
+        <v>393.853653569749</v>
       </c>
       <c r="Q2" t="n">
-        <v>217.7659138555362</v>
+        <v>217.7659138555356</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>105.867734898148</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>308.8446628357662</v>
+        <v>308.8446628357657</v>
       </c>
       <c r="L3" t="n">
-        <v>477.3044056953139</v>
+        <v>413.685376988973</v>
       </c>
       <c r="M3" t="n">
-        <v>609.4959927351783</v>
+        <v>609.4959927351775</v>
       </c>
       <c r="N3" t="n">
-        <v>162.1508337957366</v>
+        <v>162.1508337957357</v>
       </c>
       <c r="O3" t="n">
-        <v>519.7544158886587</v>
+        <v>519.7544158886579</v>
       </c>
       <c r="P3" t="n">
-        <v>399.9739252736169</v>
+        <v>399.9739252736163</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.65514299065329</v>
+        <v>214.1419065951458</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>87.64541345172204</v>
+        <v>87.64541345172169</v>
       </c>
       <c r="L4" t="n">
-        <v>168.2432616382466</v>
+        <v>168.2432616382461</v>
       </c>
       <c r="M4" t="n">
-        <v>187.8829936834166</v>
+        <v>187.8829936834161</v>
       </c>
       <c r="N4" t="n">
-        <v>188.9050675699895</v>
+        <v>188.9050675699891</v>
       </c>
       <c r="O4" t="n">
-        <v>158.3063287948066</v>
+        <v>158.3063287948062</v>
       </c>
       <c r="P4" t="n">
-        <v>111.7001476696865</v>
+        <v>111.7001476696862</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>167.0560036833826</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>247.9413674127361</v>
+        <v>48.19268088369944</v>
       </c>
       <c r="L5" t="n">
-        <v>514.7230036022415</v>
+        <v>514.7230036022406</v>
       </c>
       <c r="M5" t="n">
-        <v>589.5028063691295</v>
+        <v>589.5028063691284</v>
       </c>
       <c r="N5" t="n">
-        <v>584.2617825815703</v>
+        <v>584.261782581569</v>
       </c>
       <c r="O5" t="n">
-        <v>125.2575736986302</v>
+        <v>492.0622639110546</v>
       </c>
       <c r="P5" t="n">
-        <v>393.8536535697499</v>
+        <v>393.853653569749</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.45092319563156</v>
+        <v>5.450923195630878</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>105.867734898148</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>308.8446628357662</v>
+        <v>308.8446628357657</v>
       </c>
       <c r="L6" t="n">
-        <v>106.4640603918548</v>
+        <v>106.464060391854</v>
       </c>
       <c r="M6" t="n">
-        <v>609.4959927351783</v>
+        <v>437.3749349887424</v>
       </c>
       <c r="N6" t="n">
-        <v>363.5044154947022</v>
+        <v>641.4932081392892</v>
       </c>
       <c r="O6" t="n">
-        <v>519.7544158886587</v>
+        <v>519.7544158886579</v>
       </c>
       <c r="P6" t="n">
-        <v>399.9739252736169</v>
+        <v>399.9739252736163</v>
       </c>
       <c r="Q6" t="n">
-        <v>214.1419065951462</v>
+        <v>214.1419065951458</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>87.64541345172204</v>
+        <v>87.64541345172169</v>
       </c>
       <c r="L7" t="n">
-        <v>168.2432616382466</v>
+        <v>168.2432616382461</v>
       </c>
       <c r="M7" t="n">
-        <v>187.8829936834166</v>
+        <v>187.8829936834161</v>
       </c>
       <c r="N7" t="n">
-        <v>188.9050675699895</v>
+        <v>188.9050675699891</v>
       </c>
       <c r="O7" t="n">
-        <v>158.3063287948066</v>
+        <v>158.3063287948062</v>
       </c>
       <c r="P7" t="n">
-        <v>111.7001476696865</v>
+        <v>111.7001476696862</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,10 +35176,10 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>551.5799084066749</v>
       </c>
       <c r="M8" t="n">
-        <v>631.2814768280002</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,19 +35258,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>663.7159803499849</v>
+        <v>368.6268117378475</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.71692040662252</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295185</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,10 +36206,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36522,13 +36522,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>379.5262112417391</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,10 +37628,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
